--- a/data/income_statement/2digits/size/25_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/25_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>25-Manufacture of fabricated metal products, except machinery and equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>25-Manufacture of fabricated metal products, except machinery and equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1145 +841,1295 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>10775983.32054</v>
+        <v>10089580.50337</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>12786414.71091</v>
+        <v>12031344.31442</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>19017735.40766</v>
+        <v>18138271.17031</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>21448595.53354</v>
+        <v>20517707.9198</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>21538184.3853</v>
+        <v>20165204.26479</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>27323538.33933</v>
+        <v>26243030.97173</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>28103611.05746</v>
+        <v>30334247.87126</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>37620178.98583</v>
+        <v>35553955.93241</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>51924205.62311999</v>
+        <v>49393562.89317999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>57202912.03353</v>
+        <v>55660279.93502001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>67934087.76725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>65237250.89391</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>89333353.914</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>7167322.09617</v>
+        <v>6671295.436050001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>9045114.188850001</v>
+        <v>8498168.792640001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>13615882.00525</v>
+        <v>12936464.06769</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>15259248.66632</v>
+        <v>14601952.10856</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>15211144.9555</v>
+        <v>14142351.85376</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>19553355.65046</v>
+        <v>18887217.55385</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>20303492.90342</v>
+        <v>22037764.61766</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>27669533.99363</v>
+        <v>26201493.5619</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>37755133.47256</v>
+        <v>35771030.28868</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>38166868.49259</v>
+        <v>36942486.67792001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>44604960.91361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>43015911.89391</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>59955387.015</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>3481333.29912</v>
+        <v>3300822.44121</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>3570038.55055</v>
+        <v>3376426.23281</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>5188224.973</v>
+        <v>5004164.16558</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>5990518.056220001</v>
+        <v>5736335.382389999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>6136400.47841</v>
+        <v>5848632.0882</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>7492501.49333</v>
+        <v>7111464.386469999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>7489255.487029999</v>
+        <v>7947992.81521</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>9471967.692709999</v>
+        <v>8919607.93616</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>13557375.14617</v>
+        <v>13054887.00923</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>18341978.73232</v>
+        <v>18068936.11783</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>22678674.76155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>21604841.86881</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>28365855.528</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>127327.92525</v>
+        <v>117462.62611</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>171261.97151</v>
+        <v>156749.28897</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>213628.42941</v>
+        <v>197642.93704</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>198828.811</v>
+        <v>179420.42885</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>190638.95139</v>
+        <v>174220.32283</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>277681.19554</v>
+        <v>244349.03141</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>310862.66701</v>
+        <v>348490.43839</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>478677.29949</v>
+        <v>432854.43435</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>611697.00439</v>
+        <v>567645.59527</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>694064.80862</v>
+        <v>648857.1392699999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>650452.09209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>616497.1311900002</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1012111.371</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>379591.55603</v>
+        <v>355401.39983</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>439175.0051</v>
+        <v>403935.11847</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>636807.8752799999</v>
+        <v>582349.00579</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>783815.9201600001</v>
+        <v>772198.9140699999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>751966.86042</v>
+        <v>722306.3311299999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1212524.93696</v>
+        <v>1145858.81213</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1265746.95403</v>
+        <v>1262598.1922</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1548015.85696</v>
+        <v>1516820.57333</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2430339.49253</v>
+        <v>2373684.44981</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3095788.72149</v>
+        <v>2960675.58318</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3424440.74453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3292033.12496</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>3290895.674</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>109320.58121</v>
+        <v>102765.07825</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>92528.37815</v>
+        <v>87979.93124000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>113100.89006</v>
+        <v>105142.82416</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>170098.04744</v>
+        <v>161918.09228</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>153176.02297</v>
+        <v>140177.22417</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>184910.26079</v>
+        <v>179839.76432</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>217913.01498</v>
+        <v>218172.87715</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>335593.06645</v>
+        <v>310699.147</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>596933.10188</v>
+        <v>560075.13046</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>390689.25705</v>
+        <v>364746.76275</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>444491.0638299999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>409253.44653</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>450668.363</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>241149.39854</v>
+        <v>224419.9504</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>319836.7339</v>
+        <v>290059.13644</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>492970.26491</v>
+        <v>446871.39969</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>566677.5871799999</v>
+        <v>564366.45761</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>561997.2895900001</v>
+        <v>545920.57886</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>964934.45767</v>
+        <v>904723.2858000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>961097.15342</v>
+        <v>950839.15303</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1127106.82197</v>
+        <v>1122997.94926</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1702240.48876</v>
+        <v>1690410.21777</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2403839.79305</v>
+        <v>2295490.79747</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2772046.57191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2676712.49089</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2612528.965</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>29121.57628</v>
+        <v>28216.37118</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>26809.89305</v>
+        <v>25896.05079</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>30736.72031</v>
+        <v>30334.78194</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>47040.28554</v>
+        <v>45914.36418</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>36793.54786</v>
+        <v>36208.5281</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>62680.2185</v>
+        <v>61295.76201</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>86736.78563</v>
+        <v>93586.16202000002</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>85315.96854</v>
+        <v>83123.47706999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>131165.90189</v>
+        <v>123199.10158</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>301259.67139</v>
+        <v>300438.02296</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>207903.10879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>206067.18754</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>227698.346</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>10396391.76451</v>
+        <v>9734179.103540001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>12347239.70581</v>
+        <v>11627409.19595</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>18380927.53238</v>
+        <v>17555922.16452</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>20664779.61338</v>
+        <v>19745509.00573</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>20786217.52488</v>
+        <v>19442897.93366</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>26111013.40237</v>
+        <v>25097172.1596</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>26837864.10343</v>
+        <v>29071649.67906</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>36072163.12887</v>
+        <v>34037135.35908</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>49493866.13059</v>
+        <v>47019878.44336999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>54107123.31203999</v>
+        <v>52699604.35184</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>64509647.02272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>61945217.76895</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>86042458.23999999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>8274811.78482</v>
+        <v>7733483.12873</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>10112033.44829</v>
+        <v>9481767.3555</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>14952759.94762</v>
+        <v>14267634.18694</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>17103295.19856</v>
+        <v>16330373.72896</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>16824507.25278</v>
+        <v>15722842.5884</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>21277159.90647</v>
+        <v>20462015.8361</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>21414809.11688</v>
+        <v>23000973.27295</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>28572787.43678</v>
+        <v>26920938.50825</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>39283940.11889</v>
+        <v>37312570.1107</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>41858610.09077001</v>
+        <v>40816447.84663001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>50895828.13171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>48862152.34220999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>65478066.085</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6494539.127520001</v>
+        <v>6154687.331490001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>8121533.690790001</v>
+        <v>7723526.93798</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>11924455.87079</v>
+        <v>11477676.01987</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>13594906.20415</v>
+        <v>13087496.91298</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>13266828.37301</v>
+        <v>12648819.77061</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>16240864.59147</v>
+        <v>15559824.57388</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>16929952.41405</v>
+        <v>18041276.28555</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>22106984.93428</v>
+        <v>20833661.00864</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>32318063.61412</v>
+        <v>30911346.10913</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>34791406.51829</v>
+        <v>33973645.10881</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>42234653.49207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>40707970.84462</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>55579595.931</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>902455.90975</v>
+        <v>856903.4958500001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1208119.6033</v>
+        <v>1129428.72168</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1730759.58223</v>
+        <v>1616462.12732</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1972596.82672</v>
+        <v>1876438.46747</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1900197.28468</v>
+        <v>1734481.16795</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2726685.327</v>
+        <v>2545563.53429</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2220992.20268</v>
+        <v>2347813.50858</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2796185.31603</v>
+        <v>2675412.55109</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3842305.13508</v>
+        <v>3647177.11697</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4059846.86487</v>
+        <v>3956805.231050001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5266779.032099999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5057782.680469999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6836880.005</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>762898.5269299999</v>
+        <v>616541.72829</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>682750.1366400002</v>
+        <v>538615.41689</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1159791.90523</v>
+        <v>1045579.93499</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1355362.40978</v>
+        <v>1196444.02875</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1520101.16765</v>
+        <v>1214074.00326</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2160469.4665</v>
+        <v>2222040.53211</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2125083.41778</v>
+        <v>2434929.94218</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3400109.04106</v>
+        <v>3149864.1877</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2791126.16455</v>
+        <v>2431136.95501</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2589789.91535</v>
+        <v>2488211.43085</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2912373.12272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2633321.21752</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2415181.25</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>114918.22062</v>
+        <v>105350.5731</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>99630.01756000001</v>
+        <v>90196.27895000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>137752.58937</v>
+        <v>127916.10476</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>180429.75791</v>
+        <v>169994.31976</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>137380.42744</v>
+        <v>125467.64658</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>149140.5215</v>
+        <v>134587.19582</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>138781.08237</v>
+        <v>176953.53664</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>269508.14541</v>
+        <v>262000.76082</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>332445.20514</v>
+        <v>322909.92959</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>417566.79226</v>
+        <v>397786.07592</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>482022.48482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>463077.5996</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>646408.899</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2121579.97969</v>
+        <v>2000695.97481</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2235206.25752</v>
+        <v>2145641.84045</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3428167.58476</v>
+        <v>3288287.97758</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3561484.41482</v>
+        <v>3415135.27677</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3961710.2721</v>
+        <v>3720055.34526</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4833853.4959</v>
+        <v>4635156.3235</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5423054.98655</v>
+        <v>6070676.406110001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>7499375.69209</v>
+        <v>7116196.85083</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>10209926.0117</v>
+        <v>9707308.332670001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>12248513.22127</v>
+        <v>11883156.50521</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>13613818.89101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13083065.42674</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>20564392.155</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1141096.5631</v>
+        <v>1035180.69602</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1318947.72928</v>
+        <v>1206933.26652</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1662612.96754</v>
+        <v>1540371.32635</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1965280.15107</v>
+        <v>1854085.0618</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2104267.82425</v>
+        <v>1937420.84844</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2499095.99398</v>
+        <v>2351253.60852</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2569842.06921</v>
+        <v>2811467.45845</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3530947.76724</v>
+        <v>3311070.29033</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4482494.41684</v>
+        <v>4222735.59405</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4600933.01607</v>
+        <v>4400655.906810001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5600741.976379999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5326125.25199</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6764195.208</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>36048.59225</v>
+        <v>30063.46719</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>37762.85982</v>
+        <v>35890.81698999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>46443.32398</v>
+        <v>45077.46451999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>58486.9172</v>
+        <v>57321.75191000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>85035.72309</v>
+        <v>80014.27845</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>97578.59050000001</v>
+        <v>91571.59044999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>88432.31022</v>
+        <v>105987.9349</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>126705.55221</v>
+        <v>125627.25588</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>137716.33359</v>
+        <v>135666.7937</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>174984.87923</v>
+        <v>167393.66243</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>221912.79383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>218774.02864</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>221397.791</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>491105.95516</v>
+        <v>456685.65552</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>579883.47464</v>
+        <v>551568.69984</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>732075.33927</v>
+        <v>692001.71052</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>879476.27004</v>
+        <v>846756.55142</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>982605.36211</v>
+        <v>924844.3215</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1144471.22492</v>
+        <v>1098935.92341</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1266436.71681</v>
+        <v>1313301.46974</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1607426.05136</v>
+        <v>1539298.98016</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>2116590.54653</v>
+        <v>2039128.06947</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2300810.32832</v>
+        <v>2228600.58495</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2852852.27559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2735121.39593</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3444995.233</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>613942.01569</v>
+        <v>548431.57331</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>701301.3948199999</v>
+        <v>619473.7496900001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>884094.30429</v>
+        <v>803292.1513100001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1027316.96383</v>
+        <v>950006.75847</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1036626.73905</v>
+        <v>932562.24849</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1257046.17856</v>
+        <v>1160746.09466</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1214973.04218</v>
+        <v>1392178.05381</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1796816.16367</v>
+        <v>1646144.05429</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2228187.53672</v>
+        <v>2047940.73088</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2125137.80852</v>
+        <v>2004661.65943</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2525976.90696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2372229.82742</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3097802.184</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>980483.4165899999</v>
+        <v>965515.27879</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>916258.52824</v>
+        <v>938708.57393</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1765554.61722</v>
+        <v>1747916.65123</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1596204.26375</v>
+        <v>1561050.21497</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1857442.44785</v>
+        <v>1782634.49682</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2334757.50192</v>
+        <v>2283902.71498</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2853212.91734</v>
+        <v>3259208.94766</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3968427.92485</v>
+        <v>3805126.560500001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>5727431.594860001</v>
+        <v>5484572.73862</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>7647580.2052</v>
+        <v>7482500.5984</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>8013076.91463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7756940.174750001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>13800196.947</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>804265.6938</v>
+        <v>699349.13482</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>897236.35075</v>
+        <v>738097.28178</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1224853.41501</v>
+        <v>1021178.99302</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1110563.79215</v>
+        <v>1018229.63799</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1432494.43508</v>
+        <v>1300838.06408</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1530652.81882</v>
+        <v>1453864.99387</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2482222.44791</v>
+        <v>2619957.44639</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3156047.97232</v>
+        <v>2924901.13841</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>4363481.636220001</v>
+        <v>4148315.9677</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>11139787.70835</v>
+        <v>10323267.83404</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5865800.69488</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5310170.296219999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>14331394.351</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>27043.88917</v>
+        <v>26890.27239</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>44890.68862000001</v>
+        <v>38001.97763</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>34515.74418</v>
+        <v>34510.7874</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>31067.37175</v>
+        <v>30574.09646</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>153826.04343</v>
+        <v>138126.57639</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>53499.68558</v>
+        <v>53397.65736</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>92416.04030999998</v>
+        <v>131401.66926</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>55891.28403999999</v>
+        <v>20532.83954</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>20631.68762</v>
+        <v>17058.55955</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>60687.81632</v>
+        <v>49638.89925</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>86724.16010000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>45168.32418</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>129160.837</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>30242.0026</v>
+        <v>28601.4004</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>38986.57053</v>
+        <v>38136.79035</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>124690.67476</v>
+        <v>9754.15647</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>38890.15098000001</v>
+        <v>21875.04038</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>17134.23851</v>
+        <v>16980.90916</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>16862.35989</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>14447.39088</v>
+        <v>9522.18226</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>131896.52715</v>
+        <v>130695.80796</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>31805.93599</v>
+        <v>29375.55114</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>27205.47911</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>38232.15429</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>22974.33529</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>20030.524</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>56005.19217</v>
+        <v>45620.37284</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>48717.72692999999</v>
+        <v>41249.20533</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>75520.30912999999</v>
+        <v>63540.70569</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>87239.52959999999</v>
+        <v>77359.98233</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>65572.3613</v>
+        <v>58016.87394</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>77412.59527000001</v>
+        <v>67861.90955</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>105002.56101</v>
+        <v>102510.61492</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>143205.53472</v>
+        <v>126416.77034</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>226499.45167</v>
+        <v>208727.39874</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>316400.90431</v>
+        <v>265991.92451</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>328353.18765</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>269623.57675</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>320404.655</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>959.2738099999999</v>
+        <v>950.2667700000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1825.28536</v>
+        <v>1565.13217</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>830.3803699999999</v>
+        <v>815.8829999999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>3117.9115</v>
+        <v>3041.09946</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>900.6589799999999</v>
+        <v>758.6015399999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1348.45022</v>
+        <v>983.2009999999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1935.87723</v>
+        <v>1391.29183</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1052.00698</v>
+        <v>548.5729299999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>623.8276999999999</v>
+        <v>588.6650599999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1697.99124</v>
+        <v>1697.97339</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5952.367819999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3705.14372</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1088.402</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>10867.55425</v>
+        <v>9770.593230000002</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>13276.06815</v>
+        <v>12355.59281</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>13270.75149</v>
+        <v>12496.02339</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>13977.63491</v>
+        <v>13653.26376</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>17811.3514</v>
+        <v>15499.05601</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>21506.77535</v>
+        <v>20475.18666</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>33647.59499</v>
+        <v>38863.92892</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>55196.52688</v>
+        <v>56106.40733</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>24329.84222</v>
+        <v>24110.59772</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>49084.79121</v>
+        <v>48281.51339</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>41614.87966</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>38062.7476</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>51661.184</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1423.96644</v>
+        <v>862.56712</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>37388.86618</v>
+        <v>781.4168099999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1952.50543</v>
+        <v>1875.43502</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>23871.37852</v>
+        <v>23821.94651</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>47277.85699</v>
+        <v>46629.64214</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>3267.97411</v>
+        <v>1538.58993</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>6163.20697</v>
+        <v>4141.09127</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>121036.44929</v>
+        <v>120340.01295</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>28913.22864</v>
+        <v>11065.893</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>60578.15759</v>
+        <v>58069.75166</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>70598.17794999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>68286.72637999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>57468.941</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>565141.84938</v>
+        <v>514054.07121</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>597527.7895599999</v>
+        <v>511789.1481699999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>857338.08271</v>
+        <v>802524.15342</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>774676.49663</v>
+        <v>728328.42253</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>976380.6518199999</v>
+        <v>906082.3094800001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1172204.03613</v>
+        <v>1124925.69203</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2023670.93045</v>
+        <v>2130308.20586</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2366292.85236</v>
+        <v>2203584.7136</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3671544.80182</v>
+        <v>3525235.25794</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>10188592.94477</v>
+        <v>9455092.793709999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4802847.63706</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4388482.27232</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>13158762.085</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>14546.32066</v>
+        <v>13039.30819</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>23722.00963</v>
+        <v>23721.80302</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>13280.39305</v>
+        <v>13229.59594</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>8409.768099999999</v>
+        <v>8190.42782</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>25450.01586</v>
+        <v>24638.44518</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>41160.79849</v>
+        <v>40749.49722999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>54953.78215</v>
+        <v>54858.68569</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>69003.77533</v>
+        <v>68747.57174</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>73760.50252000001</v>
+        <v>73755.03533000001</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>103462.10459</v>
+        <v>98649.48752</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>138503.31417</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>137074.26217</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>179897.176</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2093,13 +2144,13 @@
         <v>42.85081</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>818.6407399999999</v>
+        <v>816.2486</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>14.75128</v>
+        <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>179.83725</v>
+        <v>1.617</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
@@ -2113,251 +2164,286 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>105.947</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>98035.64532</v>
+        <v>59560.28267</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>90892.39775</v>
+        <v>70487.26744999998</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>100958.77187</v>
+        <v>79936.45067000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>129270.69935</v>
+        <v>111342.50793</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>127322.61605</v>
+        <v>93289.40164</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>143375.3925</v>
+        <v>127070.90022</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>149805.22667</v>
+        <v>146958.15938</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>212473.01557</v>
+        <v>197928.44202</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>285372.35804</v>
+        <v>258399.00922</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>332077.5192100001</v>
+        <v>318640.0115</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>352974.81618</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>336792.90781</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>412814.6</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>620153.16094</v>
+        <v>542844.77302</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>600851.62063</v>
+        <v>504517.53473</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1077872.48589</v>
+        <v>1009898.89569</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>726030.31054</v>
+        <v>679284.64452</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1370503.27741</v>
+        <v>1263550.97452</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1395332.96125</v>
+        <v>1335994.22901</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2355397.08325</v>
+        <v>2463773.29301</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2883015.43681</v>
+        <v>2700908.9447</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4277286.47644</v>
+        <v>4007539.07615</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>11044109.04735</v>
+        <v>10259604.92231</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5324680.12976</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4912335.3432</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>13539017.261</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5417.9637</v>
+        <v>5338.288699999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>4111.87828</v>
+        <v>3584.30664</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>3930.65189</v>
+        <v>3739.29041</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>8267.63063</v>
+        <v>7460.83992</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5633.47774</v>
+        <v>4999.47647</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>6608.518410000001</v>
+        <v>5692.72146</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>6980.43393</v>
+        <v>7473.75974</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>12729.71195</v>
+        <v>12064.02737</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>16957.03436</v>
+        <v>15565.49589</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>23092.81324</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>25846.94118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>23303.11912</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>22975.457</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>38173.94238</v>
+        <v>29836.17597</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>33040.09512</v>
+        <v>28704.14317</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>33627.84736</v>
+        <v>32800.66831</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>58095.75540000001</v>
+        <v>54381.62247</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>53149.31767</v>
+        <v>50524.79027</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>90981.45066</v>
+        <v>87223.09743000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>75578.37501999999</v>
+        <v>68164.01478999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>141156.41077</v>
+        <v>133404.18715</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>174003.47161</v>
+        <v>86696.46998000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>167769.08315</v>
+        <v>158327.26229</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>141951.16136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>130515.18912</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>118310.162</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>48.59498000000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>704.89062</v>
+        <v>85.50112</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1215.13856</v>
+        <v>67.23087999999998</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>365.9384</v>
+        <v>145.69345</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1037.79654</v>
+        <v>926.5561799999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>6643.91102</v>
+        <v>6402.4337</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1384.25088</v>
+        <v>1261.06676</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>3417.30607</v>
+        <v>1900.63346</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>4698.39616</v>
+        <v>4401.72635</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>31760.93294</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>5997.84616</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>5714.25887</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>17559.284</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>538677.33318</v>
+        <v>480033.72578</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>512291.99119</v>
+        <v>431096.09625</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>972729.24621</v>
+        <v>914182.6839100001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>614528.48786</v>
+        <v>575423.7115999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1205953.19393</v>
+        <v>1115774.69521</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1202037.38838</v>
+        <v>1152922.75947</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2179186.49506</v>
+        <v>2292023.28957</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2595526.49981</v>
+        <v>2427431.11696</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3930368.45399</v>
+        <v>3755619.70456</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>10583128.99269</v>
+        <v>9820165.42058</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4906266.62629</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>4513448.198360001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13002272.7</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>14527.00374</v>
+        <v>14506.94754</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>19838.62367</v>
+        <v>19827.92087</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>11158.20896</v>
@@ -2366,34 +2452,39 @@
         <v>1924.2007</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>34792.87607</v>
+        <v>34667.87402</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>42763.47577</v>
+        <v>42579.6294</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>58383.73654999999</v>
+        <v>58574.04368</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>67797.12561</v>
+        <v>67571.59277</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>77156.86261</v>
+        <v>77116.31150000001</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>111252.12084</v>
+        <v>106898.28856</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>132293.37469</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>129991.47548</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>203699.539</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>85.69441</v>
+        <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>62.79379</v>
@@ -2405,13 +2496,13 @@
         <v>42.89380000000001</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>2.39454</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>14.76608</v>
+        <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0.57701</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>23222.62855</v>
+        <v>13081.04005</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>30801.34796</v>
+        <v>21156.77289</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>52713.08693</v>
+        <v>45452.50723999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>42805.40375</v>
+        <v>39905.68258</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>69934.22092000001</v>
+        <v>56657.58237</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>46283.45093</v>
+        <v>41173.58755</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>33883.21479999999</v>
+        <v>36277.11847</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>62388.3826</v>
+        <v>58537.38698999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>74082.55832</v>
+        <v>68119.66847999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>127105.10449</v>
+        <v>119360.2047</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>112324.18008</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>109363.10225</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>174200.119</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>379607.52064</v>
+        <v>313269.77842</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>313615.12738</v>
+        <v>271369.61435</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>627536.47766</v>
+        <v>581776.46681</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>458921.4474</v>
+        <v>412059.29198</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>628332.7908199999</v>
+        <v>562051.75144</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>632681.43677</v>
+        <v>562451.7921500001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>957622.6624000001</v>
+        <v>1018743.72486</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1026946.58451</v>
+        <v>936647.8755399999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1552065.72965</v>
+        <v>1458397.48077</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2432310.78011</v>
+        <v>2243835.72532</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1921124.79943</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1750911.48846</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2711119.976</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>313399.7207000001</v>
+        <v>249425.84184</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>220504.47884</v>
+        <v>183897.14953</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>470279.39739</v>
+        <v>426848.27233</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>373000.14709</v>
+        <v>334249.35151</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>476457.1390500001</v>
+        <v>414981.3382000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>492977.19827</v>
+        <v>428672.87152</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>662807.09583</v>
+        <v>682303.2284</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>782476.5431499999</v>
+        <v>704549.8469400001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1205049.70717</v>
+        <v>1117500.8151</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1748055.53509</v>
+        <v>1574924.98147</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1579084.32866</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1422291.02985</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2042176.673</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>66207.79994</v>
+        <v>63843.93658</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>93110.64853999999</v>
+        <v>87472.46482000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>157257.08027</v>
+        <v>154928.19448</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>85921.30031000001</v>
+        <v>77809.94046999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>151875.65177</v>
+        <v>147070.41324</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>139704.2385</v>
+        <v>133778.92063</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>294815.56657</v>
+        <v>336440.49646</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>244470.04136</v>
+        <v>232098.0286</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>347016.02248</v>
+        <v>340896.66567</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>684255.24502</v>
+        <v>668910.74385</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>342040.47077</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>328620.45861</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>668943.303</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>784988.42881</v>
+        <v>808749.86217</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>899028.13098</v>
+        <v>900918.70663</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1284999.06868</v>
+        <v>1177420.28175</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1521816.29796</v>
+        <v>1487935.91646</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1291100.8147</v>
+        <v>1257869.83494</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1837395.92272</v>
+        <v>1839321.68769</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2022415.6196</v>
+        <v>2396649.37618</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>3214513.87585</v>
+        <v>3092470.87867</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>4261561.02499</v>
+        <v>4166952.1494</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>5310948.08609</v>
+        <v>5302327.784809999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>6633072.680319999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6403863.63931</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>11881454.061</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>97679.29222</v>
+        <v>78374.85154999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>142766.30577</v>
+        <v>69280.90192999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>88536.37702000001</v>
+        <v>79083.86764</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>157748.94977</v>
+        <v>134308.06672</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>199419.75652</v>
+        <v>184350.62335</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>209071.58303</v>
+        <v>173689.45246</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>390107.53386</v>
+        <v>399103.52507</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>411919.638</v>
+        <v>340779.9352899999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>450085.0982899999</v>
+        <v>393797.12554</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>356815.40908</v>
+        <v>305765.5210700001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>585033.6681199999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>478333.63054</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>438026.311</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>4917.98226</v>
+        <v>4004.2655</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>20183.36716</v>
+        <v>2762.20556</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>3869.81526</v>
+        <v>3722.1415</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>12007.10451</v>
+        <v>11920.74371</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>8287.29449</v>
+        <v>7243.55635</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>8978.15862</v>
+        <v>7236.721259999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>6460.2082</v>
+        <v>8672.61447</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>9106.32826</v>
+        <v>8813.39932</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>19983.85404</v>
+        <v>19462.985</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>21754.75342</v>
+        <v>19906.97415</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>20666.96834</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>18969.63263</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>34176.48</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>92761.30996000001</v>
+        <v>74370.58605000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>122582.93861</v>
+        <v>66518.69636999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>84666.56176000001</v>
+        <v>75361.72614</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>145741.84526</v>
+        <v>122387.32301</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>191132.46203</v>
+        <v>177107.067</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>200093.42441</v>
+        <v>166452.7312</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>383647.32566</v>
+        <v>390430.9106</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>402813.30974</v>
+        <v>331966.53597</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>430101.24425</v>
+        <v>374334.1405399999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>335060.6556600001</v>
+        <v>285858.54692</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>564366.69978</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>459363.99791</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>403849.831</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>316046.68513</v>
+        <v>296536.3226300001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>209089.35126</v>
+        <v>194232.04829</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>441748.16526</v>
+        <v>393607.72115</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>259686.17261</v>
+        <v>245585.42076</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>298785.2810900001</v>
+        <v>288605.94456</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>422138.2636800001</v>
+        <v>377545.77389</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>132187.5445</v>
+        <v>351355.506</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>730934.5186299999</v>
+        <v>672416.7593800001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>571691.9519199999</v>
+        <v>546684.35191</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>746463.173</v>
+        <v>690637.94599</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>655216.91469</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>586414.83094</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>625846.54</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>84322.60099000001</v>
+        <v>81580.46586000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>90971.39285999999</v>
+        <v>89943.07964999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>84764.65853</v>
+        <v>82672.59658</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>99750.17702</v>
+        <v>96812.25361000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>118033.34092</v>
+        <v>117255.1115</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>162243.93103</v>
+        <v>153087.60214</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>28519.80211</v>
+        <v>187509.44074</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>213453.25025</v>
+        <v>205246.90082</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>228058.04508</v>
+        <v>222193.47612</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>244192.49675</v>
+        <v>235604.76368</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>255243.81436</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>230932.1015</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>312856.075</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>31189.68283</v>
+        <v>29225.50043</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>25230.6837</v>
+        <v>22908.49196</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>63013.11134</v>
+        <v>62179.57507</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>52840.59683</v>
+        <v>50100.93632</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>51381.19013</v>
+        <v>48770.81351</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>72498.48121000001</v>
+        <v>63129.70743</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>16116.85392</v>
+        <v>42420.63506</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>52726.48111</v>
+        <v>50826.12426999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>163095.20136</v>
+        <v>161446.34967</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>226633.77493</v>
+        <v>212754.71541</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>138864.4765</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>135798.16598</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>88697.027</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>200534.40131</v>
+        <v>185730.35634</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>92887.27470000001</v>
+        <v>81380.47668000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>293970.39539</v>
+        <v>248755.5495</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>107095.39876</v>
+        <v>98672.23083</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>129370.75004</v>
+        <v>122580.01955</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>187395.85144</v>
+        <v>161328.46432</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>87550.88847000001</v>
+        <v>121425.4302</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>464754.78727</v>
+        <v>416343.7342899999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>180538.70548</v>
+        <v>163044.52612</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>275636.90132</v>
+        <v>242278.4669</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>261108.62383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>219684.56346</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>224293.438</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>566621.0359</v>
+        <v>590588.3910899999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>832705.08549</v>
+        <v>775967.56027</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>931787.28044</v>
+        <v>862896.42824</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1419879.07512</v>
+        <v>1376658.56242</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1191735.29013</v>
+        <v>1153614.51373</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1624329.24207</v>
+        <v>1635465.36626</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2280335.60896</v>
+        <v>2444397.39525</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2895498.99522</v>
+        <v>2760834.05458</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>4139954.17136</v>
+        <v>4014064.92303</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>4921300.322170001</v>
+        <v>4917455.359889998</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>6562889.43375</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>6295782.43891</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>11693633.832</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>121247.41646</v>
+        <v>115432.43785</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>125420.93226</v>
+        <v>116854.58042</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>207554.65978</v>
+        <v>200599.44409</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>232741.22464</v>
+        <v>225637.09623</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>241146.3371</v>
+        <v>228616.1559</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>260202.69893</v>
+        <v>253691.81805</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>360542.02904</v>
+        <v>372303.22269</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>431450.4582999999</v>
+        <v>409903.89881</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>603725.7380599999</v>
+        <v>573356.21658</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>831599.63093</v>
+        <v>799300.6919</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>986879.15026</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>945903.4630899999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1731885.478</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>445373.6194399999</v>
+        <v>475155.95324</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>707284.1532300001</v>
+        <v>659112.9798499999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>724232.6206600001</v>
+        <v>662296.9841500001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1187137.85048</v>
+        <v>1151021.46619</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>950588.9530300001</v>
+        <v>924998.3578299999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1364126.54314</v>
+        <v>1381773.54821</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1919793.57992</v>
+        <v>2072094.17256</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>2464048.53692</v>
+        <v>2350930.15577</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3536228.4333</v>
+        <v>3440708.70645</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>4089700.69124</v>
+        <v>4118154.66799</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>5576010.283489999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>5349878.97582</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>9961748.354</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>433</v>
+        <v>330</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>167</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>